--- a/biology/Zoologie/Chilarchaea_quellon/Chilarchaea_quellon.xlsx
+++ b/biology/Zoologie/Chilarchaea_quellon/Chilarchaea_quellon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilarchaea quellon, unique représentant du genre Chilarchaea, est une espèce d'araignées aranéomorphes de la famille des Mecysmaucheniidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilarchaea quellon, unique représentant du genre Chilarchaea, est une espèce d'araignées aranéomorphes de la famille des Mecysmaucheniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Chili dans la région des Lacs dans les provinces de Chiloé et de Llanquihue et en Argentine dans la province de Río Negro dans le parc national Nahuel Huapi[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Chili dans la région des Lacs dans les provinces de Chiloé et de Llanquihue et en Argentine dans la province de Río Negro dans le parc national Nahuel Huapi,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilarchaea quellon mesure moins de 2 mm et compte six yeux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilarchaea quellon mesure moins de 2 mm et compte six yeux.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Quellón.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Forster &amp; Platnick, 1984 : A review of the archaeid spiders and their relatives, with notes on the limits of the superfamily Palpimanoidea (Arachnida, Araneae).  Bulletin of the American Museum of Natural History, no 178, p. 1-106 (texte intégral).</t>
         </is>
